--- a/Pheno Data.xlsx
+++ b/Pheno Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15de357c2d4b6bc6/Bilder/Fotografie/Dokumente/GitHub/CROP-SHIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E1B333-A7B7-4BB0-B1DC-1044E4577606}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DF10F5-F653-488F-996B-B3A27FDE430A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3510" windowWidth="29040" windowHeight="17520" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
+    <workbookView xWindow="5400" yWindow="4620" windowWidth="18372" windowHeight="10908" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
   </bookViews>
   <sheets>
     <sheet name="EBLUPs for Multiscore" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="202">
   <si>
     <t>Genotype</t>
   </si>
@@ -525,9 +525,6 @@
     <t>-0.43434919</t>
   </si>
   <si>
-    <t>FT (MEAN ONLY)</t>
-  </si>
-  <si>
     <t>90.8</t>
   </si>
   <si>
@@ -574,6 +571,84 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>FT  EMMeans</t>
+  </si>
+  <si>
+    <t>BBCH</t>
+  </si>
+  <si>
+    <t>13.71031</t>
+  </si>
+  <si>
+    <t>13.61054</t>
+  </si>
+  <si>
+    <t>13.78960</t>
+  </si>
+  <si>
+    <t>13.70900</t>
+  </si>
+  <si>
+    <t>13.46285</t>
+  </si>
+  <si>
+    <t>13.93859</t>
+  </si>
+  <si>
+    <t>14.10537</t>
+  </si>
+  <si>
+    <t>13.15806</t>
+  </si>
+  <si>
+    <t>13.84701</t>
+  </si>
+  <si>
+    <t>14.12637</t>
+  </si>
+  <si>
+    <t>13.49204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08384535</t>
+  </si>
+  <si>
+    <t>-0.04977743</t>
+  </si>
+  <si>
+    <t>-0.23345398</t>
+  </si>
+  <si>
+    <t>-1.20682517</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.79802762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.63853085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.69106433</t>
+  </si>
+  <si>
+    <t>-5.14404393</t>
+  </si>
+  <si>
+    <t>-2.11994855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.43477726</t>
+  </si>
+  <si>
+    <t>-2.49522215</t>
+  </si>
+  <si>
+    <t>-5.25936070</t>
+  </si>
+  <si>
+    <t>Multi-trait-score</t>
   </si>
 </sst>
 </file>
@@ -1004,434 +1079,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9E0584-605C-4FBE-939D-41EFA4157932}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="8"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="8"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
-        <v>173</v>
+      <c r="C1" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="D1" t="s">
         <v>172</v>
       </c>
       <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>171</v>
+      <c r="K13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +3019,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,13 +3135,13 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="E5">
-        <v>4.3550000000000004</v>
+        <v>0.435</v>
       </c>
       <c r="F5">
-        <v>4.3639999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="G5">
-        <v>4.3609999999999998</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3079,7 +3233,7 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="G9">
-        <v>263</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4539,668 +4693,851 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2C83DA-4D30-4682-BB28-AAFE167C3088}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="3"/>
+    <col min="3" max="4" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>13</v>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
-        <v>13</v>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3">
-        <v>13</v>
+      <c r="B10" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
-        <v>13</v>
+      <c r="B13" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <v>14</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3">
         <v>13</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
-        <v>13</v>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3">
         <v>14</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
-        <v>14</v>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
-        <v>14</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3">
-        <v>14</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
-        <v>14</v>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3">
-        <v>14</v>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3">
-        <v>14</v>
+      <c r="B33" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3">
         <v>14</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3">
-        <v>14</v>
+      <c r="B35" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
-        <v>14</v>
+      <c r="B36" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3">
-        <v>13</v>
+      <c r="B38" t="s">
+        <v>60</v>
       </c>
       <c r="C38" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="3">
         <v>13</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3">
         <v>13</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3">
-        <v>13</v>
+      <c r="B41" t="s">
+        <v>60</v>
       </c>
       <c r="C41" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
-        <v>14</v>
+      <c r="B42" t="s">
+        <v>60</v>
       </c>
       <c r="C42" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="3">
         <v>14</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="3">
-        <v>14</v>
+      <c r="B45" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="3">
         <v>13</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="3">
-        <v>14</v>
+      <c r="B47" t="s">
+        <v>67</v>
       </c>
       <c r="C47" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="3">
-        <v>14</v>
+      <c r="B48" t="s">
+        <v>67</v>
       </c>
       <c r="C48" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="3">
         <v>14</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="3">
-        <v>14</v>
+      <c r="B50" t="s">
+        <v>67</v>
       </c>
       <c r="C50" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="3">
-        <v>14</v>
+      <c r="B51" t="s">
+        <v>67</v>
       </c>
       <c r="C51" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>13</v>
+      <c r="B52" t="s">
+        <v>67</v>
       </c>
       <c r="C52" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="3">
         <v>13</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="3">
-        <v>13</v>
+      <c r="B54" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3">
-        <v>13</v>
+      <c r="B55" t="s">
+        <v>67</v>
       </c>
       <c r="C55" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3">
-        <v>13</v>
+      <c r="B56" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3">
-        <v>13</v>
+      <c r="B57" t="s">
+        <v>67</v>
       </c>
       <c r="C57" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="3">
-        <v>14</v>
+      <c r="B58" t="s">
+        <v>67</v>
       </c>
       <c r="C58" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="3">
-        <v>13</v>
+      <c r="B59" t="s">
+        <v>67</v>
       </c>
       <c r="C59" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="3">
-        <v>13</v>
+      <c r="B60" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3">
         <v>13</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>12</v>
       </c>
     </row>

--- a/Pheno Data.xlsx
+++ b/Pheno Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15de357c2d4b6bc6/Bilder/Fotografie/Dokumente/GitHub/CROP-SHIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DF10F5-F653-488F-996B-B3A27FDE430A}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="8_{F8D879D4-6D9D-45AB-8F1E-531FA26915DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031E5F87-0F83-4287-B854-234697145056}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4620" windowWidth="18372" windowHeight="10908" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
+    <workbookView xWindow="-20685" yWindow="7335" windowWidth="18375" windowHeight="10905" firstSheet="1" activeTab="6" xr2:uid="{E871ECE7-53CF-4A46-A9F9-F539054801C8}"/>
   </bookViews>
   <sheets>
     <sheet name="EBLUPs for Multiscore" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="190">
   <si>
     <t>Genotype</t>
   </si>
@@ -610,42 +610,6 @@
   </si>
   <si>
     <t>13.49204</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.08384535</t>
-  </si>
-  <si>
-    <t>-0.04977743</t>
-  </si>
-  <si>
-    <t>-0.23345398</t>
-  </si>
-  <si>
-    <t>-1.20682517</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.79802762</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.63853085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.69106433</t>
-  </si>
-  <si>
-    <t>-5.14404393</t>
-  </si>
-  <si>
-    <t>-2.11994855</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.43477726</t>
-  </si>
-  <si>
-    <t>-2.49522215</t>
-  </si>
-  <si>
-    <t>-5.25936070</t>
   </si>
   <si>
     <t>Multi-trait-score</t>
@@ -655,6 +619,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -741,6 +708,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1081,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9E0584-605C-4FBE-939D-41EFA4157932}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1071,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
         <v>172</v>
@@ -1133,14 +1102,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>192</v>
+      <c r="C2" s="9">
+        <v>-1.2068251699999999</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -1171,14 +1140,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>193</v>
+      <c r="C3" s="9">
+        <v>1.79802762</v>
       </c>
       <c r="D3" t="s">
         <v>174</v>
@@ -1209,14 +1178,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>189</v>
+      <c r="C4" s="9">
+        <v>8.3845349999999999E-2</v>
       </c>
       <c r="D4" t="s">
         <v>173</v>
@@ -1247,14 +1216,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>190</v>
+      <c r="C5" s="9">
+        <v>-4.9777429999999998E-2</v>
       </c>
       <c r="D5" t="s">
         <v>173</v>
@@ -1285,14 +1254,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>191</v>
+      <c r="C6" s="9">
+        <v>-0.23345398000000001</v>
       </c>
       <c r="D6" t="s">
         <v>174</v>
@@ -1323,14 +1292,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>194</v>
+      <c r="C7" s="9">
+        <v>4.6385308500000004</v>
       </c>
       <c r="D7" t="s">
         <v>174</v>
@@ -1361,14 +1330,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>195</v>
+      <c r="C8" s="9">
+        <v>5.6910643299999997</v>
       </c>
       <c r="D8" t="s">
         <v>173</v>
@@ -1399,14 +1368,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>196</v>
+      <c r="C9" s="9">
+        <v>-5.1440439299999996</v>
       </c>
       <c r="D9" t="s">
         <v>173</v>
@@ -1437,14 +1406,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>197</v>
+      <c r="C10" s="9">
+        <v>-2.1199485500000002</v>
       </c>
       <c r="D10" t="s">
         <v>173</v>
@@ -1475,14 +1444,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>198</v>
+      <c r="C11" s="9">
+        <v>3.4347772600000002</v>
       </c>
       <c r="D11" t="s">
         <v>174</v>
@@ -1513,14 +1482,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>199</v>
+      <c r="C12" s="9">
+        <v>-2.49522215</v>
       </c>
       <c r="D12" t="s">
         <v>175</v>
@@ -1551,14 +1520,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>200</v>
+      <c r="C13" s="9">
+        <v>-5.2593607000000002</v>
       </c>
       <c r="D13" t="s">
         <v>174</v>
@@ -5550,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967AD3E0-CBC8-44A1-937B-6BF9857F32E1}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
